--- a/program_directory/interpreterAccounting/良信电器：2016年年度报告.xlsx
+++ b/program_directory/interpreterAccounting/良信电器：2016年年度报告.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="519">
   <si>
     <t>项目</t>
   </si>
@@ -26,7 +26,7 @@
     <t>期末余额</t>
   </si>
   <si>
-    <t>期初</t>
+    <t>期初余额</t>
   </si>
   <si>
     <t>流动资产：</t>
@@ -521,7 +521,7 @@
     <t>本期发生额</t>
   </si>
   <si>
-    <t>上期发</t>
+    <t>上期发生额</t>
   </si>
   <si>
     <t>一、营业总收入</t>
@@ -834,9 +834,6 @@
   </si>
   <si>
     <t>（二）稀释每股收益</t>
-  </si>
-  <si>
-    <t>上期发生额</t>
   </si>
   <si>
     <t>一、经营活动产生的现金流量：</t>
@@ -1585,9 +1582,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -1599,11 +1596,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1629,6 +1625,45 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -1638,7 +1673,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1651,9 +1694,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1668,39 +1718,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1709,29 +1729,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1752,7 +1749,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1764,31 +1857,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1800,139 +1923,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1949,8 +1946,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1965,21 +1986,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2029,57 +2035,42 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2088,106 +2079,112 @@
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2543,8 +2540,8 @@
   <sheetPr/>
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="2"/>
@@ -3291,8 +3288,8 @@
   <sheetPr/>
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="2"/>
@@ -3809,7 +3806,7 @@
   <sheetPr/>
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" topLeftCell="A19" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -3829,519 +3826,519 @@
         <v>166</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>272</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>388</v>
-      </c>
       <c r="C71" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -4355,7 +4352,7 @@
   <sheetPr/>
   <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P110" sqref="P110"/>
     </sheetView>
   </sheetViews>
@@ -4370,127 +4367,127 @@
     <row r="1" spans="1:14">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -4502,10 +4499,10 @@
         <v>144</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -4515,54 +4512,54 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -4571,141 +4568,141 @@
         <v>141</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>405</v>
-      </c>
       <c r="N6" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>414</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -4715,14 +4712,14 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -4739,187 +4736,187 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -4937,7 +4934,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -4955,51 +4952,51 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -5017,7 +5014,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -5035,7 +5032,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5053,51 +5050,51 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -5115,7 +5112,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -5133,7 +5130,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -5151,51 +5148,51 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -5213,7 +5210,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -5232,7 +5229,7 @@
     <row r="29" spans="1:14">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -5249,190 +5246,190 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F30" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="J30" s="2" t="s">
+      <c r="K30" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="L30" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="K30" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="L30" s="2" t="s">
+      <c r="M30" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="N30" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="J32" s="2" t="s">
+      <c r="K32" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="L32" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="K32" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="L32" s="2" t="s">
+      <c r="M32" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="N32" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N34" s="2"/>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>437</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -5449,189 +5446,189 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="H36" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="J36" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="J36" s="2" t="s">
+      <c r="K36" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="L36" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="K36" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="L36" s="2" t="s">
+      <c r="M36" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="N36" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>444</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F38" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="H38" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="J38" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="J38" s="2" t="s">
+      <c r="K38" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="L38" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="L38" s="2" t="s">
+      <c r="M38" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="N38" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N40" s="2"/>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -5644,16 +5641,16 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -5666,60 +5663,60 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -5732,17 +5729,17 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -5759,63 +5756,63 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="N46" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -5824,68 +5821,68 @@
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="F48" s="2" t="s">
+      <c r="G48" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="N48" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -5894,49 +5891,49 @@
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N50" s="2"/>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -5953,63 +5950,63 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="F52" s="2" t="s">
+      <c r="G52" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="N52" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="N52" s="2" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -6018,68 +6015,68 @@
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="F54" s="2" t="s">
+      <c r="G54" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="N54" s="2" t="s">
         <v>469</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -6088,48 +6085,48 @@
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
       <c r="N55" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N56" s="2"/>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -6147,7 +6144,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -6165,51 +6162,51 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -6227,7 +6224,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -6245,58 +6242,58 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -6306,63 +6303,63 @@
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
       <c r="N63" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -6372,59 +6369,59 @@
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
       <c r="N65" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N66" s="2"/>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
@@ -6434,21 +6431,21 @@
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
       <c r="N67" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
@@ -6458,63 +6455,63 @@
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
       <c r="N68" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="F69" s="2" t="s">
+      <c r="G69" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="N69" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="L69" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="N69" s="2" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -6524,7 +6521,7 @@
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
       <c r="N70" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -6538,20 +6535,20 @@
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -6562,59 +6559,59 @@
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -6628,15 +6625,15 @@
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -6650,18 +6647,18 @@
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -6672,57 +6669,57 @@
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -6736,18 +6733,18 @@
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -6765,7 +6762,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -6783,51 +6780,51 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -6845,7 +6842,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -6858,16 +6855,16 @@
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -6880,60 +6877,60 @@
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -6946,16 +6943,16 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -6974,13 +6971,13 @@
     <row r="88" spans="1:14">
       <c r="A88" s="2"/>
       <c r="B88" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
@@ -6993,60 +6990,60 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
@@ -7059,60 +7056,60 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
@@ -7126,57 +7123,57 @@
     <row r="93" spans="1:14">
       <c r="A93" s="2"/>
       <c r="B93" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
@@ -7189,16 +7186,16 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
@@ -7212,48 +7209,48 @@
     <row r="96" spans="1:14">
       <c r="A96" s="2"/>
       <c r="B96" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -7271,7 +7268,7 @@
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -7289,51 +7286,51 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -7351,7 +7348,7 @@
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -7369,7 +7366,7 @@
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -7387,51 +7384,51 @@
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -7449,7 +7446,7 @@
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -7467,7 +7464,7 @@
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -7485,7 +7482,7 @@
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -7503,7 +7500,7 @@
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -7521,7 +7518,7 @@
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -7540,7 +7537,7 @@
     <row r="110" spans="1:14">
       <c r="A110" s="2"/>
       <c r="B110" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -7559,184 +7556,184 @@
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F111" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="G111" s="2" t="s">
+      <c r="H111" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="J111" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="H111" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="J111" s="2" t="s">
+      <c r="K111" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="L111" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="K111" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="L111" s="2" t="s">
-        <v>513</v>
-      </c>
       <c r="M111" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>514</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>515</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
       <c r="J112" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F113" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="G113" s="2" t="s">
+      <c r="H113" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="J113" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="H113" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="J113" s="2" t="s">
+      <c r="K113" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="L113" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="K113" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="L113" s="2" t="s">
-        <v>519</v>
-      </c>
       <c r="M113" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
       <c r="J114" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K114" s="2"/>
       <c r="L114" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
       <c r="H115" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J115" s="2"/>
       <c r="K115" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L115" s="2"/>
       <c r="M115" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
